--- a/Scapulothoracic_muscles.xlsx
+++ b/Scapulothoracic_muscles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufaond\Documents\Matlab\Exoskelet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F64645-68B5-473B-BBA4-8D1842CC82A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF09C97E-1D96-4F0D-BFF3-8F3C5933E01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{853EFD83-F5B8-485D-8318-19FE4C99CB0B}"/>
+    <workbookView xWindow="-28800" yWindow="8700" windowWidth="14400" windowHeight="8700" xr2:uid="{853EFD83-F5B8-485D-8318-19FE4C99CB0B}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Muscle</t>
   </si>
   <si>
-    <t>Optimal_length</t>
-  </si>
-  <si>
     <t>SBCL</t>
   </si>
   <si>
@@ -162,6 +159,15 @@
   </si>
   <si>
     <t>0.11506965743681</t>
+  </si>
+  <si>
+    <t>0.1252089719457094</t>
+  </si>
+  <si>
+    <t>Optimal_length_upravene</t>
+  </si>
+  <si>
+    <t>Optimal_length_wu</t>
   </si>
 </sst>
 </file>
@@ -514,171 +520,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81CA71D-960C-43F0-AC49-0DE8E50B3D44}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
+      <c r="D14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Scapulothoracic_muscles.xlsx
+++ b/Scapulothoracic_muscles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufaond\Documents\Matlab\Exoskelet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF09C97E-1D96-4F0D-BFF3-8F3C5933E01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6F7D4-DEC0-4F63-BAF5-CA8F4ED80E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="8700" windowWidth="14400" windowHeight="8700" xr2:uid="{853EFD83-F5B8-485D-8318-19FE4C99CB0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Muscle</t>
   </si>
@@ -161,13 +161,49 @@
     <t>0.11506965743681</t>
   </si>
   <si>
-    <t>0.1252089719457094</t>
-  </si>
-  <si>
     <t>Optimal_length_upravene</t>
   </si>
   <si>
     <t>Optimal_length_wu</t>
+  </si>
+  <si>
+    <t>0.0693861569985691</t>
+  </si>
+  <si>
+    <t>0.116982312421667</t>
+  </si>
+  <si>
+    <t>0.142349225195613</t>
+  </si>
+  <si>
+    <t>0.169624773492201</t>
+  </si>
+  <si>
+    <t>0.142003456015892</t>
+  </si>
+  <si>
+    <t>0.190963063904747</t>
+  </si>
+  <si>
+    <t>0.122063988214140</t>
+  </si>
+  <si>
+    <t>0.147660576545422</t>
+  </si>
+  <si>
+    <t>0.0874282936631438</t>
+  </si>
+  <si>
+    <t>0.0755448185556480</t>
+  </si>
+  <si>
+    <t>0.0638454741557207</t>
+  </si>
+  <si>
+    <t>0.0813852241566054</t>
+  </si>
+  <si>
+    <t>0.0808168514025335</t>
   </si>
 </sst>
 </file>
@@ -523,7 +559,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +578,10 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -570,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -584,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -598,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -612,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -626,7 +662,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -640,7 +676,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -654,7 +690,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -668,7 +704,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -682,7 +718,7 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -696,7 +732,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
@@ -710,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -724,7 +760,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
